--- a/Leaderboards/ME3MP-TCHOF-TheCompact.xlsx
+++ b/Leaderboards/ME3MP-TCHOF-TheCompact.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MEHOF\Leaderboards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC12E8-5630-40FA-BE64-02D4E71FB033}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E218241-89DF-487C-AD17-24AF39793FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27885" windowHeight="18240" firstSheet="5" activeTab="9" xr2:uid="{31A7287A-82F4-4374-A33D-694D301D47E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" firstSheet="5" activeTab="9" xr2:uid="{31A7287A-82F4-4374-A33D-694D301D47E5}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamTrioPlatinum" sheetId="16" r:id="rId1"/>
@@ -44,7 +39,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,40 +60,25 @@
   <connection id="3" xr16:uid="{B82C86B6-E7F2-4BF3-8A46-E32B3B6AAF7A}" keepAlive="1" name="Query - PlayerPlatinum" description="Connection to the 'PlayerPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerPlatinum;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerPlatinum]"/>
   </connection>
-  <connection id="4" xr16:uid="{BB5672FC-9C62-4FA6-B16D-5AF69B343121}" keepAlive="1" name="Query - PlayerRuns" description="Connection to the 'PlayerRuns' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerRuns;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerRuns]"/>
-  </connection>
-  <connection id="5" xr16:uid="{7B187B52-3ECE-4EE1-B649-89E4F27A7A60}" keepAlive="1" name="Query - PlayerThemedDuoRuns" description="Connection to the 'PlayerThemedDuoRuns' query in the workbook." type="5" refreshedVersion="6" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerThemedDuoRuns;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerThemedDuoRuns]"/>
-  </connection>
-  <connection id="6" xr16:uid="{EB52B643-72A2-4C3C-B1F0-3F6F067616FB}" keepAlive="1" name="Query - PlayerTrioGold" description="Connection to the 'PlayerTrioGold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{EB52B643-72A2-4C3C-B1F0-3F6F067616FB}" keepAlive="1" name="Query - PlayerTrioGold" description="Connection to the 'PlayerTrioGold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerTrioGold;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerTrioGold]"/>
   </connection>
-  <connection id="7" xr16:uid="{F721F063-63D3-434C-A7EF-32FFE0C0EE27}" keepAlive="1" name="Query - PlayerTrioPlatinum" description="Connection to the 'PlayerTrioPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{F721F063-63D3-434C-A7EF-32FFE0C0EE27}" keepAlive="1" name="Query - PlayerTrioPlatinum" description="Connection to the 'PlayerTrioPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerTrioPlatinum;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerTrioPlatinum]"/>
   </connection>
-  <connection id="8" xr16:uid="{54780F2F-CB42-4C89-A46C-5E857CEC8755}" keepAlive="1" name="Query - RunsByPlayerFilePath" description="Connection to the 'RunsByPlayerFilePath' query in the workbook." type="5" refreshedVersion="0" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=RunsByPlayerFilePath;Extended Properties=&quot;&quot;" command="SELECT * FROM [RunsByPlayerFilePath]"/>
-  </connection>
-  <connection id="9" xr16:uid="{7C27B0D1-AA82-4398-8482-D1B1F40132D7}" keepAlive="1" name="Query - SoloGold" description="Connection to the 'SoloGold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{7C27B0D1-AA82-4398-8482-D1B1F40132D7}" keepAlive="1" name="Query - SoloGold" description="Connection to the 'SoloGold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=SoloGold;Extended Properties=&quot;&quot;" command="SELECT * FROM [SoloGold]"/>
   </connection>
-  <connection id="10" xr16:uid="{6464507F-544F-4C33-B50C-C8DAF65D216F}" keepAlive="1" name="Query - SoloPlatinum" description="Connection to the 'SoloPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{6464507F-544F-4C33-B50C-C8DAF65D216F}" keepAlive="1" name="Query - SoloPlatinum" description="Connection to the 'SoloPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=SoloPlatinum;Extended Properties=&quot;&quot;" command="SELECT * FROM [SoloPlatinum]"/>
   </connection>
-  <connection id="11" xr16:uid="{7E35C66B-BD71-4132-9DDD-F5C21D200DDF}" keepAlive="1" name="Query - TeamDuoGold" description="Connection to the 'TeamDuoGold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{7E35C66B-BD71-4132-9DDD-F5C21D200DDF}" keepAlive="1" name="Query - TeamDuoGold" description="Connection to the 'TeamDuoGold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TeamDuoGold;Extended Properties=&quot;&quot;" command="SELECT * FROM [TeamDuoGold]"/>
   </connection>
-  <connection id="12" xr16:uid="{B50FE607-AAF5-4CB0-813D-1466C435B8FD}" keepAlive="1" name="Query - TeamDuoPlatinum" description="Connection to the 'TeamDuoPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{B50FE607-AAF5-4CB0-813D-1466C435B8FD}" keepAlive="1" name="Query - TeamDuoPlatinum" description="Connection to the 'TeamDuoPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TeamDuoPlatinum;Extended Properties=&quot;&quot;" command="SELECT * FROM [TeamDuoPlatinum]"/>
   </connection>
-  <connection id="13" xr16:uid="{20510621-E899-4F6C-B7D5-CD95F2CD5950}" keepAlive="1" name="Query - TeamRuns" description="Connection to the 'TeamRuns' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TeamRuns;Extended Properties=&quot;&quot;" command="SELECT * FROM [TeamRuns]"/>
-  </connection>
-  <connection id="14" xr16:uid="{90EFA728-87C5-42F1-B220-C7F2C63C93D1}" keepAlive="1" name="Query - TeamThemedDuoRuns" description="Connection to the 'TeamThemedDuoRuns' query in the workbook." type="5" refreshedVersion="6" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TeamThemedDuoRuns;Extended Properties=&quot;&quot;" command="SELECT * FROM [TeamThemedDuoRuns]"/>
-  </connection>
-  <connection id="15" xr16:uid="{5A70DDEE-2F5F-4889-BC17-F4A0E723B4F8}" keepAlive="1" name="Query - TeamTrioPlatinum" description="Connection to the 'TeamTrioPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" xr16:uid="{5A70DDEE-2F5F-4889-BC17-F4A0E723B4F8}" keepAlive="1" name="Query - TeamTrioPlatinum" description="Connection to the 'TeamTrioPlatinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TeamTrioPlatinum;Extended Properties=&quot;&quot;" command="SELECT * FROM [TeamTrioPlatinum]"/>
   </connection>
 </connections>
@@ -943,7 +926,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_15" connectionId="15" xr16:uid="{42B29BAC-1EC9-4C4B-A327-43E05961FB5A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_15" connectionId="10" xr16:uid="{42B29BAC-1EC9-4C4B-A327-43E05961FB5A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsLeft="2">
     <queryTableFields count="9">
       <queryTableField id="7" dataBound="0" tableColumnId="7"/>
@@ -988,7 +971,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_14" connectionId="11" xr16:uid="{73AD2977-2380-4218-8319-0A33BB9A5D7B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_14" connectionId="8" xr16:uid="{73AD2977-2380-4218-8319-0A33BB9A5D7B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10" unboundColumnsLeft="2">
     <queryTableFields count="8">
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
@@ -1005,7 +988,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_13" connectionId="12" xr16:uid="{FF846B09-0715-4657-9E96-960F0D80F1DF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_13" connectionId="9" xr16:uid="{FF846B09-0715-4657-9E96-960F0D80F1DF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10" unboundColumnsLeft="2">
     <queryTableFields count="8">
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
@@ -1022,7 +1005,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_10" connectionId="6" xr16:uid="{31AE34F3-15C5-48C3-9CA5-2A9D7CF786F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_10" connectionId="4" xr16:uid="{31AE34F3-15C5-48C3-9CA5-2A9D7CF786F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsLeft="2">
     <queryTableFields count="9">
       <queryTableField id="7" dataBound="0" tableColumnId="7"/>
@@ -1040,7 +1023,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_9" connectionId="7" xr16:uid="{0D80A815-EE62-4CED-B992-3A9E52C6586F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_9" connectionId="5" xr16:uid="{0D80A815-EE62-4CED-B992-3A9E52C6586F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsLeft="2">
     <queryTableFields count="9">
       <queryTableField id="7" dataBound="0" tableColumnId="7"/>
@@ -1092,7 +1075,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_6" connectionId="9" xr16:uid="{76265ED7-98FA-4685-8457-5264E264042B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_6" connectionId="6" xr16:uid="{76265ED7-98FA-4685-8457-5264E264042B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsLeft="2">
     <queryTableFields count="9">
       <queryTableField id="8" dataBound="0" tableColumnId="8"/>
@@ -1110,7 +1093,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" connectionId="10" xr16:uid="{8EC32AE1-C47A-47DD-8503-E15FCE790F5A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" connectionId="7" xr16:uid="{8EC32AE1-C47A-47DD-8503-E15FCE790F5A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsLeft="2">
     <queryTableFields count="9">
       <queryTableField id="8" dataBound="0" tableColumnId="8"/>
